--- a/data/trans_camb/P23_DUKE_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P23_DUKE_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,15</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>5,07</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>2,04</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1,31</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 6,48</t>
+          <t>-6,98; 9,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,79; 10,69</t>
+          <t>-7,66; 8,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 5,26</t>
+          <t>-7,49; 7,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 22,1</t>
+          <t>-7,33; 7,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 3,88</t>
+          <t>-1,8; 11,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 12,51</t>
+          <t>-5,26; 9,9</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-4,26; 5,59</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-3,09; 7,5</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-3,77; 6,58</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-13,49%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-12,0%</t>
+          <t>-0,16%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,8%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>48,64%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-6,99%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>2,38%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1,13%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2,99%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1,51%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-55,03; 61,53</t>
+          <t>-7,68; 11,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-55,36; 91,77</t>
+          <t>-8,36; 9,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-36,38; 43,45</t>
+          <t>-8,06; 9,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 178,35</t>
+          <t>-8,12; 9,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-37,74; 30,79</t>
+          <t>-1,99; 14,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,31; 97,95</t>
+          <t>-5,95; 12,33</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-4,8; 6,66</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-3,37; 9,13</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-4,26; 7,87</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,13</t>
+          <t>5,98</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>9,92</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,13</t>
+          <t>-9,04</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-7,12</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1,59</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-3,78</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,71; 3,77</t>
+          <t>-4,8; 17,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,4; 8,06</t>
+          <t>-8,75; 13,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 4,25</t>
+          <t>0,77; 19,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 6,5</t>
+          <t>-8,52; 4,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 2,22</t>
+          <t>-17,6; -1,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 4,98</t>
+          <t>-15,46; -0,63</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-4,54; 7,67</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-11,02; 2,48</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-5,09; 6,75</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-23,48%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,12%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-11,7%</t>
+          <t>12,6%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,11%</t>
+          <t>-1,9%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-16,91%</t>
+          <t>-9,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-2,92%</t>
+          <t>-7,72%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1,84%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-4,38%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,64%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-65,86; 30,29</t>
+          <t>-5,53; 23,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-54,2; 65,65</t>
+          <t>-10,23; 19,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-42,18; 27,41</t>
+          <t>0,97; 27,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-36,68; 43,1</t>
+          <t>-9,04; 4,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-43,18; 14,82</t>
+          <t>-18,64; -2,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,28; 32,69</t>
+          <t>-16,22; -0,7</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-5,15; 9,26</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-12,42; 2,94</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-5,71; 8,16</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>20,29</t>
+          <t>36,03</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>16,78</t>
+          <t>35,61</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>39,43</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,1</t>
+          <t>8,36</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>11,81</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>13,17</t>
+          <t>6,66</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>23,27</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>18,21</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>24,25</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,98; 45,7</t>
+          <t>8,24; 73,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,51; 43,48</t>
+          <t>7,55; 74,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 15,22</t>
+          <t>11,82; 73,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 23,96</t>
+          <t>-7,68; 24,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,43; 25,72</t>
+          <t>-20,27; 19,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,83; 30,43</t>
+          <t>-7,74; 25,24</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>6,57; 50,48</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1,39; 48,18</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>8,06; 50,15</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>247,88%</t>
+          <t>62,02%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>204,97%</t>
+          <t>61,3%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>20,17%</t>
+          <t>67,88%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>69,84%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>112,87%</t>
+          <t>-1,39%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>125,84%</t>
+          <t>7,91%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>33,22%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>26,0%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>34,62%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1702,37</t>
+          <t>9,92; 278,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-27,68; 1912,64</t>
+          <t>9,12; 312,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-60,32; 208,64</t>
+          <t>13,45; 312,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-26,53; 388,44</t>
+          <t>-7,69; 35,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,43; 418,68</t>
+          <t>-22,36; 26,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,67; 445,19</t>
+          <t>-7,76; 35,23</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>7,9; 109,91</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1,51; 108,19</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>9,32; 114,08</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>7,44</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>5,29</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>8,94</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>-1,35</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>3,56</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1,66</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3,48</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 6,21</t>
+          <t>0,37; 16,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 8,03</t>
+          <t>-1,61; 14,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 3,21</t>
+          <t>2,54; 17,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 13,1</t>
+          <t>-4,63; 5,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 3,29</t>
+          <t>-6,31; 3,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 7,6</t>
+          <t>-6,17; 3,69</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-0,42; 8,6</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-2,6; 6,41</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-0,53; 8,24</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,52%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-4,7%</t>
+          <t>11,06%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>25,52%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-2,79%</t>
+          <t>-1,67%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>-1,53%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>4,2%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1,95%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>4,1%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-37,98; 50,46</t>
+          <t>0,55; 22,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-33,24; 63,72</t>
+          <t>-1,86; 19,4</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-29,33; 22,14</t>
+          <t>3,02; 23,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 84,13</t>
+          <t>-5,12; 5,77</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-23,2; 22,64</t>
+          <t>-7,0; 3,79</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-11,58; 51,93</t>
+          <t>-6,78; 4,26</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-0,49; 10,63</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-2,97; 7,91</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-0,6; 10,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
